--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmedal-saber/Desktop/Hessa Al-Jarrallah/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F6A8D9-1722-5945-BC34-DAA953780E71}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C3C002-1977-D743-A05D-C5462312C1D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940" xr2:uid="{F0078CC1-6299-904B-8DCF-FE1A7E9F3B36}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="27">
-  <si>
-    <t>Participant</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Type</t>
   </si>
@@ -98,19 +95,10 @@
     <t>T maximum 3</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Follow-up</t>
-  </si>
-  <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Apnoea</t>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -12145,7 +12133,7 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P95" sqref="P95"/>
+      <selection activeCell="C106" sqref="C106:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12160,81 +12148,81 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2" s="6">
         <f>'[1]01_Followup_means'!$K$16</f>
@@ -12317,11 +12305,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" s="6">
         <f>'[1]02_Followup_means'!$K$16</f>
@@ -12404,11 +12392,11 @@
       <c r="A4" s="6">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4" s="6">
         <f>'[1]05_Followup_means'!$K$16</f>
@@ -12491,11 +12479,11 @@
       <c r="A5" s="6">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5" s="6">
         <f>'[1]07_Followup_means'!$K$16</f>
@@ -12578,11 +12566,11 @@
       <c r="A6" s="6">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
       <c r="D6" s="6">
         <f>'[1]08_Followup_means'!$K$16</f>
@@ -12665,11 +12653,11 @@
       <c r="A7" s="6">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7" s="6">
         <f>'[1]09_Followup_means'!$K$16</f>
@@ -12752,11 +12740,11 @@
       <c r="A8" s="6">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8" s="6">
         <f>'[1]10_Followup_means'!$K$16</f>
@@ -12839,11 +12827,11 @@
       <c r="A9" s="6">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
       <c r="D9" s="6">
         <f>'[1]11_Followup_means'!$K$16</f>
@@ -12926,11 +12914,11 @@
       <c r="A10" s="6">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
       </c>
       <c r="D10" s="6">
         <f>'[1]12_Followup_means'!$K$16</f>
@@ -13013,11 +13001,11 @@
       <c r="A11" s="6">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="D11" s="6">
         <f>'[1]13_Followup_means'!$K$16</f>
@@ -13100,11 +13088,11 @@
       <c r="A12" s="6">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
       <c r="D12" s="6">
         <f>'[1]14_Followup_means'!$K$16</f>
@@ -13187,11 +13175,11 @@
       <c r="A13" s="6">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13" s="6">
         <f>'[1]16_Followup_means'!$K$16</f>
@@ -13274,11 +13262,11 @@
       <c r="A14" s="6">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="D14" s="6">
         <f>'[1]17_Followup_means'!$K$16</f>
@@ -13361,11 +13349,11 @@
       <c r="A15" s="6">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
       </c>
       <c r="D15" s="6">
         <f>'[1]18_Followup_means'!$K$16</f>
@@ -13448,11 +13436,11 @@
       <c r="A16" s="6">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="D16" s="6">
         <f>'[1]19_Followup_means'!$K$16</f>
@@ -13535,11 +13523,11 @@
       <c r="A17" s="6">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
       </c>
       <c r="D17" s="6">
         <f>'[1]20_Followup_means'!$K$16</f>
@@ -13622,11 +13610,11 @@
       <c r="A18" s="6">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
       <c r="D18" s="6">
         <f>'[1]21_Followup_means'!$K$16</f>
@@ -13709,11 +13697,11 @@
       <c r="A19" s="10">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19" s="10">
         <f>'[1]22_Followup_means'!$K$16</f>
@@ -13796,11 +13784,11 @@
       <c r="A20" s="6">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
       </c>
       <c r="D20" s="6">
         <f>'[1]23_Followup_means'!$K$16</f>
@@ -13883,11 +13871,11 @@
       <c r="A21" s="6">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
       </c>
       <c r="D21" s="6">
         <f>'[1]24_Followup_means'!$K$16</f>
@@ -13970,11 +13958,11 @@
       <c r="A22" s="6">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
       </c>
       <c r="D22" s="6">
         <f>'[1]25_Followup_means'!$K$16</f>
@@ -14057,11 +14045,11 @@
       <c r="A23" s="6">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
       </c>
       <c r="D23" s="6">
         <f>'[1]26_Followup_means'!$K$16</f>
@@ -14144,11 +14132,11 @@
       <c r="A24" s="6">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
       </c>
       <c r="D24" s="6">
         <f>'[1]27_Followup_means'!$K$16</f>
@@ -14231,11 +14219,11 @@
       <c r="A25" s="6">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
       </c>
       <c r="D25" s="6">
         <f>'[1]28_Followup_means'!$K$16</f>
@@ -14318,11 +14306,11 @@
       <c r="A26" s="6">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
       </c>
       <c r="D26" s="6">
         <f>'[1]30_Followup_means'!$K$16</f>
@@ -14405,11 +14393,11 @@
       <c r="A27" s="6">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
       </c>
       <c r="D27" s="6">
         <f>'[1]31_Followup_means'!$K$16</f>
@@ -14492,11 +14480,11 @@
       <c r="A28" s="6">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
       </c>
       <c r="D28" s="6">
         <f>'[1]32_Followup_means'!$K$16</f>
@@ -14579,11 +14567,11 @@
       <c r="A29" s="6">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
       </c>
       <c r="D29" s="6">
         <f>'[1]33_Followup_means'!$K$16</f>
@@ -14666,11 +14654,11 @@
       <c r="A30" s="6">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
       </c>
       <c r="D30" s="6">
         <f>'[1]35_Followup_means'!$K$16</f>
@@ -14753,11 +14741,11 @@
       <c r="A31" s="6">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
       </c>
       <c r="D31" s="6">
         <f>'[1]38_Followup_means'!$K$16</f>
@@ -14840,11 +14828,11 @@
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32" s="6">
         <f>'[1]01_Baseline_means'!$K$16</f>
@@ -14927,11 +14915,11 @@
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33" s="6">
         <f>'[1]02_Baseline_means'!$K$16</f>
@@ -15014,11 +15002,11 @@
       <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
       </c>
       <c r="D34" s="6">
         <f>'[1]03_Baseline_means'!$K$16</f>
@@ -15101,11 +15089,11 @@
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
       </c>
       <c r="D35" s="6">
         <f>'[1]04_Baseline_means'!$K$16</f>
@@ -15188,11 +15176,11 @@
       <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
       <c r="D36" s="6">
         <f>'[1]05_Baseline_means'!$K$16</f>
@@ -15275,11 +15263,11 @@
       <c r="A37">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37" s="6">
         <f>'[1]06_Baseline_means'!$K$16</f>
@@ -15362,11 +15350,11 @@
       <c r="A38">
         <v>7</v>
       </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
       </c>
       <c r="D38" s="6">
         <f>'[1]07_Baseline_means'!$K$16</f>
@@ -15449,11 +15437,11 @@
       <c r="A39">
         <v>8</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
       </c>
       <c r="D39" s="6">
         <f>'[1]08_Baseline_means'!$K$16</f>
@@ -15484,22 +15472,22 @@
         <v>42336.517044814798</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="7">
         <f>'[1]08_Baseline_means'!$K$12</f>
@@ -15530,11 +15518,11 @@
       <c r="A40">
         <v>9</v>
       </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40" s="6">
         <f>'[1]09_Baseline_means'!$K$16</f>
@@ -15617,11 +15605,11 @@
       <c r="A41">
         <v>10</v>
       </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41" s="6">
         <f>'[1]10_Baseline_means'!$K$16</f>
@@ -15704,11 +15692,11 @@
       <c r="A42">
         <v>11</v>
       </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42" s="6">
         <f>'[1]11_Baseline_means'!$K$16</f>
@@ -15791,11 +15779,11 @@
       <c r="A43">
         <v>12</v>
       </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
       <c r="D43" s="6">
         <f>'[1]12_Baseline_means'!$K$16</f>
@@ -15878,11 +15866,11 @@
       <c r="A44">
         <v>13</v>
       </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
-        <v>24</v>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
       <c r="D44" s="6">
         <f>'[1]13_Baseline_means'!$K$16</f>
@@ -15965,11 +15953,11 @@
       <c r="A45">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" t="s">
-        <v>24</v>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
       </c>
       <c r="D45" s="6">
         <f>'[1]14_Baseline_means'!$K$16</f>
@@ -16052,11 +16040,11 @@
       <c r="A46">
         <v>15</v>
       </c>
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
       </c>
       <c r="D46" s="6">
         <f>'[1]15_Baseline_means'!$K$16</f>
@@ -16139,11 +16127,11 @@
       <c r="A47">
         <v>16</v>
       </c>
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" t="s">
-        <v>24</v>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
       </c>
       <c r="D47" s="6">
         <f>'[1]16_Baseline_means'!$K$16</f>
@@ -16226,11 +16214,11 @@
       <c r="A48">
         <v>17</v>
       </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" t="s">
-        <v>24</v>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
       </c>
       <c r="D48" s="6">
         <f>'[1]17_Baseline_means'!$K$16</f>
@@ -16313,11 +16301,11 @@
       <c r="A49">
         <v>18</v>
       </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>24</v>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
       <c r="D49" s="6">
         <f>'[1]18_Baseline_means'!$K$16</f>
@@ -16400,11 +16388,11 @@
       <c r="A50">
         <v>19</v>
       </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" t="s">
-        <v>24</v>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
       </c>
       <c r="D50" s="6">
         <f>'[1]19_Baseline_means'!$K$16</f>
@@ -16487,11 +16475,11 @@
       <c r="A51">
         <v>20</v>
       </c>
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" t="s">
-        <v>24</v>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
       </c>
       <c r="D51" s="6">
         <f>'[1]20_Baseline_means'!$K$16</f>
@@ -16574,11 +16562,11 @@
       <c r="A52">
         <v>21</v>
       </c>
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
       </c>
       <c r="D52" s="6">
         <f>'[1]21_Baseline_means'!$K$16</f>
@@ -16661,11 +16649,11 @@
       <c r="A53">
         <v>22</v>
       </c>
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" t="s">
-        <v>24</v>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
       </c>
       <c r="D53" s="6">
         <f>'[1]22_Baseline_means'!$K$16</f>
@@ -16748,11 +16736,11 @@
       <c r="A54">
         <v>23</v>
       </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" t="s">
-        <v>24</v>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
       </c>
       <c r="D54" s="6">
         <f>'[1]23_Baseline_means'!$K$16</f>
@@ -16835,11 +16823,11 @@
       <c r="A55">
         <v>24</v>
       </c>
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
       </c>
       <c r="D55" s="6">
         <f>'[1]24_Baseline_means'!$K$16</f>
@@ -16922,11 +16910,11 @@
       <c r="A56">
         <v>25</v>
       </c>
-      <c r="B56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
       </c>
       <c r="D56" s="6">
         <f>'[1]25_Baseline_means'!$K$16</f>
@@ -17009,11 +16997,11 @@
       <c r="A57">
         <v>26</v>
       </c>
-      <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" t="s">
-        <v>24</v>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
       </c>
       <c r="D57" s="6">
         <f>'[1]26_Baseline_means'!$K$16</f>
@@ -17096,11 +17084,11 @@
       <c r="A58">
         <v>27</v>
       </c>
-      <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
       </c>
       <c r="D58" s="6">
         <f>'[1]27_Baseline_means'!$K$16</f>
@@ -17183,11 +17171,11 @@
       <c r="A59">
         <v>28</v>
       </c>
-      <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
       </c>
       <c r="D59" s="6">
         <f>'[1]28_Baseline_means'!$K$16</f>
@@ -17270,11 +17258,11 @@
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" t="s">
-        <v>24</v>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
       </c>
       <c r="D60" s="6">
         <f>'[1]29_Baseline_means'!$K$16</f>
@@ -17357,11 +17345,11 @@
       <c r="A61">
         <v>30</v>
       </c>
-      <c r="B61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" t="s">
-        <v>24</v>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
       </c>
       <c r="D61" s="6">
         <f>'[1]30_Baseline_means'!$K$16</f>
@@ -17444,11 +17432,11 @@
       <c r="A62">
         <v>31</v>
       </c>
-      <c r="B62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" t="s">
-        <v>24</v>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
       </c>
       <c r="D62" s="6">
         <f>'[1]31_Baseline_means'!$K$16</f>
@@ -17531,11 +17519,11 @@
       <c r="A63">
         <v>32</v>
       </c>
-      <c r="B63" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" t="s">
-        <v>24</v>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
       </c>
       <c r="D63" s="6">
         <f>'[1]32_Baseline_means'!$K$16</f>
@@ -17618,11 +17606,11 @@
       <c r="A64">
         <v>33</v>
       </c>
-      <c r="B64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" t="s">
-        <v>24</v>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
       </c>
       <c r="D64" s="6">
         <f>'[1]33_Baseline_means'!$K$16</f>
@@ -17705,11 +17693,11 @@
       <c r="A65">
         <v>34</v>
       </c>
-      <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" t="s">
-        <v>24</v>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
       </c>
       <c r="D65" s="6">
         <f>'[1]34_Baseline_means'!$K$16</f>
@@ -17792,11 +17780,11 @@
       <c r="A66">
         <v>35</v>
       </c>
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
-        <v>24</v>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
       </c>
       <c r="D66" s="6">
         <f>'[1]35_Baseline_means'!$K$16</f>
@@ -17879,11 +17867,11 @@
       <c r="A67">
         <v>36</v>
       </c>
-      <c r="B67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" t="s">
-        <v>24</v>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
       </c>
       <c r="D67" s="6">
         <f>'[1]36_Baseline_means'!$K$16</f>
@@ -17966,11 +17954,11 @@
       <c r="A68">
         <v>38</v>
       </c>
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" t="s">
-        <v>24</v>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
       </c>
       <c r="D68" s="6">
         <f>'[1]38_Baseline_means'!$K$16</f>
@@ -18053,11 +18041,11 @@
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="B69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" t="s">
-        <v>24</v>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
       </c>
       <c r="D69">
         <f>'[2]01_Baseline_means'!$K$16</f>
@@ -18140,11 +18128,11 @@
       <c r="A70">
         <v>2</v>
       </c>
-      <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" t="s">
-        <v>24</v>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
       </c>
       <c r="D70">
         <f>'[2]02_Baseline_means'!$K$16</f>
@@ -18227,11 +18215,11 @@
       <c r="A71">
         <v>3</v>
       </c>
-      <c r="B71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" t="s">
-        <v>24</v>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
       </c>
       <c r="D71">
         <f>'[2]03_Baseline_means'!$K$16</f>
@@ -18314,11 +18302,11 @@
       <c r="A72">
         <v>4</v>
       </c>
-      <c r="B72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" t="s">
-        <v>24</v>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
       </c>
       <c r="D72">
         <f>'[2]04_Baseline_means'!$K$16</f>
@@ -18401,11 +18389,11 @@
       <c r="A73">
         <v>5</v>
       </c>
-      <c r="B73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" t="s">
-        <v>24</v>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
       </c>
       <c r="D73">
         <f>'[2]05_Baseline_means'!$K$16</f>
@@ -18436,22 +18424,22 @@
         <v>42186.694570949097</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N73" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O73" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P73" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q73" s="7">
         <f>'[2]05_Baseline_means'!$K$12</f>
@@ -18482,11 +18470,11 @@
       <c r="A74">
         <v>6</v>
       </c>
-      <c r="B74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" t="s">
-        <v>24</v>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
       </c>
       <c r="D74">
         <f>'[2]06_Baseline_means'!$K$16</f>
@@ -18569,11 +18557,11 @@
       <c r="A75">
         <v>7</v>
       </c>
-      <c r="B75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" t="s">
-        <v>24</v>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
       </c>
       <c r="D75">
         <f>'[2]07_Baseline_means'!$K$16</f>
@@ -18656,11 +18644,11 @@
       <c r="A76">
         <v>8</v>
       </c>
-      <c r="B76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" t="s">
-        <v>24</v>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
       </c>
       <c r="D76">
         <f>'[2]08_Baseline_means'!$K$16</f>
@@ -18743,11 +18731,11 @@
       <c r="A77">
         <v>9</v>
       </c>
-      <c r="B77" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" t="s">
-        <v>24</v>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
       </c>
       <c r="D77">
         <f>'[2]09_Baseline_means'!$K$16</f>
@@ -18830,11 +18818,11 @@
       <c r="A78">
         <v>10</v>
       </c>
-      <c r="B78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" t="s">
-        <v>24</v>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
       </c>
       <c r="D78">
         <f>'[2]10_Baseline_means'!$K$16</f>
@@ -18917,11 +18905,11 @@
       <c r="A79">
         <v>11</v>
       </c>
-      <c r="B79" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" t="s">
-        <v>24</v>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
       </c>
       <c r="D79">
         <f>'[2]11_Baseline_means'!$K$16</f>
@@ -19004,11 +18992,11 @@
       <c r="A80">
         <v>12</v>
       </c>
-      <c r="B80" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80" t="s">
-        <v>24</v>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
       </c>
       <c r="D80">
         <f>'[2]12_Baseline_means'!$K$16</f>
@@ -19091,11 +19079,11 @@
       <c r="A81">
         <v>13</v>
       </c>
-      <c r="B81" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" t="s">
-        <v>24</v>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
       </c>
       <c r="D81">
         <f>'[2]13_Baseline_means'!$K$16</f>
@@ -19178,11 +19166,11 @@
       <c r="A82">
         <v>14</v>
       </c>
-      <c r="B82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" t="s">
-        <v>24</v>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
       </c>
       <c r="D82">
         <f>'[2]14_Baseline_means'!$K$16</f>
@@ -19265,11 +19253,11 @@
       <c r="A83">
         <v>15</v>
       </c>
-      <c r="B83" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" t="s">
-        <v>24</v>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
       </c>
       <c r="D83">
         <f>'[2]15_Baseline_means'!$K$16</f>
@@ -19352,11 +19340,11 @@
       <c r="A84">
         <v>16</v>
       </c>
-      <c r="B84" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" t="s">
-        <v>24</v>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
       </c>
       <c r="D84">
         <f>'[2]16_Baseline_means'!$K$16</f>
@@ -19439,11 +19427,11 @@
       <c r="A85">
         <v>17</v>
       </c>
-      <c r="B85" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" t="s">
-        <v>24</v>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
       </c>
       <c r="D85">
         <f>'[2]17_Baseline_means'!$K$16</f>
@@ -19526,11 +19514,11 @@
       <c r="A86">
         <v>18</v>
       </c>
-      <c r="B86" t="s">
-        <v>26</v>
-      </c>
-      <c r="C86" t="s">
-        <v>24</v>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
       </c>
       <c r="D86">
         <f>'[2]18_Baseline_means'!$K$16</f>
@@ -19613,11 +19601,11 @@
       <c r="A87">
         <v>19</v>
       </c>
-      <c r="B87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" t="s">
-        <v>24</v>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
       </c>
       <c r="D87">
         <f>'[2]19_Baseline_means'!$K$16</f>
@@ -19700,11 +19688,11 @@
       <c r="A88">
         <v>20</v>
       </c>
-      <c r="B88" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" t="s">
-        <v>24</v>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
       </c>
       <c r="D88">
         <f>'[2]20_Baseline_means'!$K$16</f>
@@ -19787,11 +19775,11 @@
       <c r="A89">
         <v>21</v>
       </c>
-      <c r="B89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" t="s">
-        <v>24</v>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
       </c>
       <c r="D89">
         <f>'[2]21_Baseline_means'!$K$16</f>
@@ -19874,11 +19862,11 @@
       <c r="A90">
         <v>22</v>
       </c>
-      <c r="B90" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" t="s">
-        <v>24</v>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
       </c>
       <c r="D90">
         <f>'[2]22_Baseline_means'!$K$16</f>
@@ -19961,11 +19949,11 @@
       <c r="A91">
         <v>23</v>
       </c>
-      <c r="B91" t="s">
-        <v>26</v>
-      </c>
-      <c r="C91" t="s">
-        <v>24</v>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
       </c>
       <c r="D91">
         <f>'[2]23_Baseline_means'!$K$16</f>
@@ -20048,11 +20036,11 @@
       <c r="A92">
         <v>24</v>
       </c>
-      <c r="B92" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" t="s">
-        <v>24</v>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
       </c>
       <c r="D92">
         <f>'[2]24_Baseline_means'!$K$16</f>
@@ -20135,11 +20123,11 @@
       <c r="A93">
         <v>25</v>
       </c>
-      <c r="B93" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" t="s">
-        <v>24</v>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
       </c>
       <c r="D93">
         <f>'[2]25_Baseline_means'!$K$16</f>
@@ -20222,11 +20210,11 @@
       <c r="A94">
         <v>26</v>
       </c>
-      <c r="B94" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94" t="s">
-        <v>24</v>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
       </c>
       <c r="D94">
         <f>'[2]26_Baseline_means'!$K$16</f>
@@ -20309,11 +20297,11 @@
       <c r="A95">
         <v>27</v>
       </c>
-      <c r="B95" t="s">
-        <v>26</v>
-      </c>
-      <c r="C95" t="s">
-        <v>24</v>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
       </c>
       <c r="D95">
         <f>'[2]27_Baseline_means'!$K$16</f>
@@ -20344,22 +20332,22 @@
         <v>42563.801644155101</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L95" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M95" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N95" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O95" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P95" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q95" s="7">
         <f>'[2]27_Baseline_means'!$K$12</f>
@@ -20390,11 +20378,11 @@
       <c r="A96">
         <v>28</v>
       </c>
-      <c r="B96" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" t="s">
-        <v>24</v>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
       </c>
       <c r="D96">
         <f>'[2]28_Baseline_means'!$K$16</f>
@@ -20477,11 +20465,11 @@
       <c r="A97">
         <v>29</v>
       </c>
-      <c r="B97" t="s">
-        <v>26</v>
-      </c>
-      <c r="C97" t="s">
-        <v>24</v>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
       </c>
       <c r="D97">
         <f>'[2]29_Baseline_means'!$K$16</f>
@@ -20564,11 +20552,11 @@
       <c r="A98">
         <v>30</v>
       </c>
-      <c r="B98" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" t="s">
-        <v>24</v>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
       </c>
       <c r="D98">
         <f>'[2]30_Baseline_means'!$K$16</f>
@@ -20651,11 +20639,11 @@
       <c r="A99">
         <v>31</v>
       </c>
-      <c r="B99" t="s">
-        <v>26</v>
-      </c>
-      <c r="C99" t="s">
-        <v>24</v>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
       </c>
       <c r="D99">
         <f>'[2]31_Baseline_means'!$K$16</f>
@@ -20738,11 +20726,11 @@
       <c r="A100">
         <v>32</v>
       </c>
-      <c r="B100" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" t="s">
-        <v>24</v>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
       </c>
       <c r="D100">
         <f>'[2]32_Baseline_means'!$K$16</f>
@@ -20825,11 +20813,11 @@
       <c r="A101">
         <v>33</v>
       </c>
-      <c r="B101" t="s">
-        <v>26</v>
-      </c>
-      <c r="C101" t="s">
-        <v>24</v>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
       </c>
       <c r="D101">
         <f>'[2]33_Baseline_means'!$K$16</f>
@@ -20912,11 +20900,11 @@
       <c r="A102">
         <v>34</v>
       </c>
-      <c r="B102" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" t="s">
-        <v>24</v>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
       </c>
       <c r="D102" s="10">
         <f>'[2]34_Baseline_means'!$K$16</f>
@@ -20999,11 +20987,11 @@
       <c r="A103">
         <v>35</v>
       </c>
-      <c r="B103" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" t="s">
-        <v>24</v>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
       </c>
       <c r="D103" s="10">
         <f>'[2]35_Baseline_means'!$K$16</f>
@@ -21086,11 +21074,11 @@
       <c r="A104">
         <v>36</v>
       </c>
-      <c r="B104" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" t="s">
-        <v>24</v>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
       </c>
       <c r="D104" s="10">
         <f>'[2]36_Baseline_means'!$K$16</f>
@@ -21173,11 +21161,11 @@
       <c r="A105">
         <v>1</v>
       </c>
-      <c r="B105" t="s">
-        <v>26</v>
-      </c>
-      <c r="C105" t="s">
-        <v>23</v>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
       </c>
       <c r="D105">
         <f>'[2]01_Followup_means'!$K$16</f>
@@ -21260,11 +21248,11 @@
       <c r="A106">
         <v>3</v>
       </c>
-      <c r="B106" t="s">
-        <v>26</v>
-      </c>
-      <c r="C106" t="s">
-        <v>23</v>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
       </c>
       <c r="D106">
         <f>'[2]03_Followup_means'!$K$16</f>
@@ -21347,11 +21335,11 @@
       <c r="A107">
         <v>4</v>
       </c>
-      <c r="B107" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107" t="s">
-        <v>23</v>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
       </c>
       <c r="D107">
         <f>'[2]04_Followup_means'!$K$16</f>
@@ -21434,11 +21422,11 @@
       <c r="A108" s="6">
         <v>6</v>
       </c>
-      <c r="B108" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108" t="s">
-        <v>23</v>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
       </c>
       <c r="D108">
         <f>'[2]06_Followup_means'!$K$16</f>
@@ -21521,11 +21509,11 @@
       <c r="A109" s="6">
         <v>10</v>
       </c>
-      <c r="B109" t="s">
-        <v>26</v>
-      </c>
-      <c r="C109" t="s">
-        <v>23</v>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
       </c>
       <c r="D109">
         <f>'[2]10_Followup_means'!$K$16</f>
@@ -21608,11 +21596,11 @@
       <c r="A110" s="6">
         <v>12</v>
       </c>
-      <c r="B110" t="s">
-        <v>26</v>
-      </c>
-      <c r="C110" t="s">
-        <v>23</v>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
       </c>
       <c r="D110">
         <f>'[2]12_Followup_means'!$K$16</f>
@@ -21695,11 +21683,11 @@
       <c r="A111" s="6">
         <v>13</v>
       </c>
-      <c r="B111" t="s">
-        <v>26</v>
-      </c>
-      <c r="C111" t="s">
-        <v>23</v>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
       </c>
       <c r="D111">
         <f>'[2]13_Followup_means'!$K$16</f>
@@ -21782,11 +21770,11 @@
       <c r="A112" s="6">
         <v>14</v>
       </c>
-      <c r="B112" t="s">
-        <v>26</v>
-      </c>
-      <c r="C112" t="s">
-        <v>23</v>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
       </c>
       <c r="D112">
         <f>'[2]14_Followup_means'!$K$16</f>
@@ -21869,11 +21857,11 @@
       <c r="A113" s="6">
         <v>15</v>
       </c>
-      <c r="B113" t="s">
-        <v>26</v>
-      </c>
-      <c r="C113" t="s">
-        <v>23</v>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
       </c>
       <c r="D113">
         <f>'[2]15_Followup_means'!$K$16</f>
@@ -21956,11 +21944,11 @@
       <c r="A114" s="6">
         <v>17</v>
       </c>
-      <c r="B114" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" t="s">
-        <v>23</v>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
       </c>
       <c r="D114">
         <f>'[2]17_Followup_means'!$K$16</f>
@@ -22043,11 +22031,11 @@
       <c r="A115" s="6">
         <v>18</v>
       </c>
-      <c r="B115" t="s">
-        <v>26</v>
-      </c>
-      <c r="C115" t="s">
-        <v>23</v>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
       </c>
       <c r="D115">
         <f>'[2]18_Followup_means'!$K$16</f>
@@ -22130,11 +22118,11 @@
       <c r="A116" s="6">
         <v>19</v>
       </c>
-      <c r="B116" t="s">
-        <v>26</v>
-      </c>
-      <c r="C116" t="s">
-        <v>23</v>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
       </c>
       <c r="D116">
         <f>'[2]19_Followup_means'!$K$16</f>
@@ -22217,11 +22205,11 @@
       <c r="A117" s="6">
         <v>21</v>
       </c>
-      <c r="B117" t="s">
-        <v>26</v>
-      </c>
-      <c r="C117" t="s">
-        <v>23</v>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
       </c>
       <c r="D117">
         <f>'[2]21_Followup_means'!$K$16</f>
@@ -22304,11 +22292,11 @@
       <c r="A118" s="6">
         <v>22</v>
       </c>
-      <c r="B118" t="s">
-        <v>26</v>
-      </c>
-      <c r="C118" t="s">
-        <v>23</v>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
       </c>
       <c r="D118">
         <f>'[2]22_Followup_means'!$K$16</f>
@@ -22391,11 +22379,11 @@
       <c r="A119" s="6">
         <v>25</v>
       </c>
-      <c r="B119" t="s">
-        <v>26</v>
-      </c>
-      <c r="C119" t="s">
-        <v>23</v>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
       </c>
       <c r="D119">
         <f>'[2]25_Followup_means'!$K$16</f>
@@ -22478,11 +22466,11 @@
       <c r="A120" s="6">
         <v>26</v>
       </c>
-      <c r="B120" t="s">
-        <v>26</v>
-      </c>
-      <c r="C120" t="s">
-        <v>23</v>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
       </c>
       <c r="D120">
         <f>'[2]26_Followup_means'!$K$16</f>
@@ -22565,11 +22553,11 @@
       <c r="A121" s="6">
         <v>27</v>
       </c>
-      <c r="B121" t="s">
-        <v>26</v>
-      </c>
-      <c r="C121" t="s">
-        <v>23</v>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
       </c>
       <c r="D121">
         <f>'[2]27_Followup_means'!$K$16</f>
@@ -22652,11 +22640,11 @@
       <c r="A122" s="6">
         <v>28</v>
       </c>
-      <c r="B122" t="s">
-        <v>26</v>
-      </c>
-      <c r="C122" t="s">
-        <v>23</v>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
       </c>
       <c r="D122">
         <f>'[2]28_Followup_means'!$K$16</f>
@@ -22739,11 +22727,11 @@
       <c r="A123" s="6">
         <v>30</v>
       </c>
-      <c r="B123" t="s">
-        <v>26</v>
-      </c>
-      <c r="C123" t="s">
-        <v>23</v>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
       </c>
       <c r="D123">
         <f>'[2]30_Followup_means'!$K$16</f>
@@ -22826,11 +22814,11 @@
       <c r="A124" s="6">
         <v>31</v>
       </c>
-      <c r="B124" t="s">
-        <v>26</v>
-      </c>
-      <c r="C124" t="s">
-        <v>23</v>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
       </c>
       <c r="D124">
         <f>'[2]31_Followup_means'!$K$16</f>
@@ -22913,11 +22901,11 @@
       <c r="A125" s="6">
         <v>32</v>
       </c>
-      <c r="B125" t="s">
-        <v>26</v>
-      </c>
-      <c r="C125" t="s">
-        <v>23</v>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
       </c>
       <c r="D125">
         <f>'[2]32_Followup_means'!$K$16</f>
@@ -23000,11 +22988,11 @@
       <c r="A126" s="6">
         <v>33</v>
       </c>
-      <c r="B126" t="s">
-        <v>26</v>
-      </c>
-      <c r="C126" t="s">
-        <v>23</v>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
       </c>
       <c r="D126">
         <f>'[2]33_Followup_means'!$K$16</f>
@@ -23087,11 +23075,11 @@
       <c r="A127" s="6">
         <v>34</v>
       </c>
-      <c r="B127" t="s">
-        <v>26</v>
-      </c>
-      <c r="C127" t="s">
-        <v>23</v>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
       </c>
       <c r="D127" s="10">
         <f>'[2]34_Followup_means'!$K$16</f>
@@ -23174,11 +23162,11 @@
       <c r="A128" s="6">
         <v>35</v>
       </c>
-      <c r="B128" t="s">
-        <v>26</v>
-      </c>
-      <c r="C128" t="s">
-        <v>23</v>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
       </c>
       <c r="D128" s="10">
         <f>'[2]35_Followup_means'!$K$16</f>
@@ -23261,11 +23249,11 @@
       <c r="A129" s="6">
         <v>36</v>
       </c>
-      <c r="B129" t="s">
-        <v>26</v>
-      </c>
-      <c r="C129" t="s">
-        <v>23</v>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
       </c>
       <c r="D129" s="10">
         <f>'[2]36_Followup_means'!$K$16</f>
